--- a/REVs/REV-15-05-2025.xlsx
+++ b/REVs/REV-15-05-2025.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1071,7 +1071,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -1119,7 +1118,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -1167,7 +1165,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -1215,7 +1212,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -1263,7 +1259,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -1311,7 +1306,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -1359,7 +1353,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -1407,7 +1400,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -1455,7 +1447,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -1503,7 +1494,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -1551,7 +1541,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -1599,7 +1588,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -1647,7 +1635,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -1695,7 +1682,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -1743,7 +1729,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -1791,7 +1776,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -1839,7 +1823,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -1887,7 +1870,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -1935,7 +1917,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -1983,7 +1964,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -2031,7 +2011,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -2079,7 +2058,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -2127,7 +2105,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -2175,7 +2152,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -2223,7 +2199,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -2271,7 +2246,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -2319,7 +2293,6 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
@@ -2367,12 +2340,208 @@
           <t>UND</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
         </is>
       </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>6XS18700</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>FONTACTIV DIABEST VAINILLA 400GRS</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>VARIOS</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>No Tiene PT - TRADUZIDO</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>No Tiene IT - TRADOTTO</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Revisado y Traducido</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>6XS18680</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SIGNAL CEPILLO DENTAL MEDIO 4 UNIDADES</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>VARIOS</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>No Tiene PT - TRADUZIDO</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>No Tiene IT - TRADOTTO</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Revisado y Traducido</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>0TS03968</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>HAWAIAN TROPIC ALOHA COCO SHIMMER EDITION 250ML</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>VARIOS</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>No Tiene PT - TRADUZIDO</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>No Tiene IT - TRADOTTO</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Revisado y Traducido</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>0TS03976</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>HAWAIAN TROPIC SUNKISSED DREAMS BODY MIST 250ML</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>VARIOS</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>No Tiene PT - TRADUZIDO</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>No Tiene IT - TRADOTTO</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Revisado y Traducido</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
